--- a/biology/Médecine/Index_(anatomie)/Index_(anatomie).xlsx
+++ b/biology/Médecine/Index_(anatomie)/Index_(anatomie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'index est le deuxième doigt de la main chez l'humain et les grands singes, situé entre le pouce et le majeur.
 Il sert généralement pour indiquer ou désigner  un objet ou une direction. Il est également utilisé pour demander la parole en le levant, à l'école en particulier. C'est souvent le doigt utilisé par défaut, pour appuyer sur un bouton, pour écrire avec le doigt, etc.
@@ -512,7 +524,9 @@
           <t>Unicode</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs symboles Unicode représentent l'index :
 </t>
